--- a/Research Dataset/Cause of death/Thailand_2019.xlsx
+++ b/Research Dataset/Cause of death/Thailand_2019.xlsx
@@ -1,858 +1,894 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nattawaree\Documents\GitHub\Capstone\Research Dataset\Cause of death\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F3A3DB-9A9B-49C5-A2F4-6F8F3318D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1" calcId="145621"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="277">
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death rate per 100 000 population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALY rate per 100 000 population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ischaemic heart disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLAges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower respiratory infections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kidney diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alzheimer disease and other dementias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trachea, bronchus, lung cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic obstructive pulmonary disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes mellitus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cirrhosis of the liver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV/AIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colon and rectum cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallbladder and biliary tract cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhoeal diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-harm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix uteri cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouth and oropharynx cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphomas, multiple myeloma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkinson disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drowning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leukaemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oesophagus cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallbladder and biliary diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostate cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpersonal violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiomyopathy, myocarditis, endocarditis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralytic ileus and intestinal obstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neonatal conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreas cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertensive heart disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congenital anomalies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain and nervous system cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bladder cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peptic ulcer disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancreatitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma and other skin cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein-energy malnutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meningitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larynx cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kidney cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpus uteri cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug use disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encephalitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure to mechanical forces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire, heat and hot substances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol use disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urolithiasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatic heart disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyroid cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternal conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastritis and duodenitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatoid arthritis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dengue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute hepatitis B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisonings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudden infant death syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appendicitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalassaemias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collective violence and legal intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple sclerosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whooping cough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testicular cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynecological diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syphilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesothelioma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper respiratory infections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute hepatitis C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute hepatitis A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinococcosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonorrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otitis media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascariasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural disasters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-migraine headache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glaucoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cataracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncorrected refractive errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macular degeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other vision loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other hearing loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoarthritis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back and neck pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infertility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benign prostatic hyperplasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichuriasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hookworm disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food-bourne trematodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leprosy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagas disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schistosomiasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leishmaniasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphatic filariasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onchocerciasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cysticercosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickle cell disorders and trait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depressive disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bipolar disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schizophrenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eating disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autism and Asperger syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childhood behavioural disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idiopathic intellectual disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iodine deficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin A deficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron-deficiency anaemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African trypanosomiasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diphtheria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trachoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute hepatitis E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlamydia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genital herpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichomoniasis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="287">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Death rate per 100 000 population</t>
+  </si>
+  <si>
+    <t>DALY</t>
+  </si>
+  <si>
+    <t>DALY rate per 100 000 population</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>Ischaemic heart disease</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>BTSX</t>
+  </si>
+  <si>
+    <t>ALLAges</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>Lower respiratory infections</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>Kidney diseases</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>Liver cancer</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>Alzheimer disease and other dementias</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>Road injury</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>Trachea, bronchus, lung cancers</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>Cirrhosis of the liver</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Colon and rectum cancers</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>Gallbladder and biliary tract cancer</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Diarrhoeal diseases</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>Self-harm</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>Cervix uteri cancer</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>Mouth and oropharynx cancers</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>Lymphomas, multiple myeloma</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>Parkinson disease</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>Drowning</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>Leukaemia</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>Stomach cancer</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>Skin diseases</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>Oesophagus cancer</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>Gallbladder and biliary diseases</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Interpersonal violence</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy, myocarditis, endocarditis</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>Paralytic ileus and intestinal obstruction</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>Neonatal conditions</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>Pancreas cancer</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>Hypertensive heart disease</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>Congenital anomalies</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>Ovary cancer</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>Brain and nervous system cancers</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>Peptic ulcer disease</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>Pancreatitis</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>Melanoma and other skin cancers</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Protein-energy malnutrition</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>Larynx cancer</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>Kidney cancer</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>Corpus uteri cancer</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>Drug use disorders</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Encephalitis</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>Exposure to mechanical forces</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>Fire, heat and hot substances</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>Alcohol use disorders</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>Urolithiasis</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>Rheumatic heart disease</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>Maternal conditions</t>
+  </si>
+  <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>Gastritis and duodenitis</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Acute hepatitis B</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>Poisonings</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>Sudden infant death syndrome</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>Appendicitis</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>Thalassaemias</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>Collective violence and legal intervention</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Whooping cough</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>Testicular cancer</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>Gynecological diseases</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Upper respiratory infections</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Acute hepatitis C</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Acute hepatitis A</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>Echinococcosis</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Gonorrhoea</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>Otitis media</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Ascariasis</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>Natural disasters</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>Oral conditions</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Non-migraine headache</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>Glaucoma</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>Cataracts</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>Uncorrected refractive errors</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>Macular degeneration</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>Other vision loss</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>Other hearing loss</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>Gout</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>Back and neck pain</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>Benign prostatic hyperplasia</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Trichuriasis</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>Hookworm disease</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Food-bourne trematodes</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Leprosy</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Chagas disease</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Schistosomiasis</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Leishmaniasis</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Lymphatic filariasis</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>Onchocerciasis</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>Cysticercosis</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>Sickle cell disorders and trait</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>Depressive disorders</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>Bipolar disorder</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>Anxiety disorders</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>Eating disorders</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>Autism and Asperger syndrome</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>Childhood behavioural disorders</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>Idiopathic intellectual disability</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Iodine deficiency</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>Vitamin A deficiency</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>Iron-deficiency anaemia</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>African trypanosomiasis</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Diphtheria</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Trachoma</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Acute hepatitis E</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Chlamydia</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Genital herpes</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Trichomoniasis</t>
+  </si>
+  <si>
+    <t>Cause code</t>
+  </si>
+  <si>
+    <t>Decease</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Country code</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0">
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,45 +928,336 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="0" fontId="1" applyFont="1" fillId="2" applyFill="1">
-      </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane state="frozen" xSplit="2" ySplit="1" topLeftCell="C2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="10.643973214285714"/>
-    <col min="2" max="2" customWidth="1" width="42.786830357142854"/>
-    <col min="3" max="3" customWidth="1" width="10.643973214285714"/>
-    <col min="4" max="4" customWidth="1" width="10.643973214285714"/>
-    <col min="5" max="5" customWidth="1" width="10.643973214285714"/>
-    <col min="6" max="6" customWidth="1" width="14.215401785714286"/>
-    <col min="7" max="7" customWidth="1" width="14.215401785714286"/>
-    <col min="8" max="8" customWidth="1" width="14.215401785714286"/>
-    <col min="9" max="9" customWidth="1" width="42.786830357142854"/>
-    <col min="10" max="10" customWidth="1" width="21.358258928571427"/>
-    <col min="11" max="11" customWidth="1" width="42.786830357142854"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -984,23 +1311,23 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>69600000</v>
+      </c>
+      <c r="H2">
         <v>51305.42</v>
       </c>
-      <c r="I2" t="n">
-        <v>73.71</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="J2">
         <v>979744.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1407.68</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1019,23 +1346,23 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>69600000</v>
+      </c>
+      <c r="H3">
         <v>50273.15</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>72.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1204871</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1731.14</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1054,23 +1381,23 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>69600000</v>
+      </c>
+      <c r="H4">
         <v>31289.49</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>44.96</v>
       </c>
-      <c r="J4" t="n">
-        <v>595188.2</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>595188.19999999995</v>
+      </c>
+      <c r="K4">
         <v>855.16</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1089,23 +1416,23 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>69600000</v>
+      </c>
+      <c r="H5">
         <v>26822.23</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>38.54</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>680882.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>978.28</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1124,23 +1451,23 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>23882.72</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6">
+        <v>69600000</v>
+      </c>
+      <c r="H6">
+        <v>23882.720000000001</v>
+      </c>
+      <c r="I6">
         <v>34.31</v>
       </c>
-      <c r="J6" t="n">
-        <v>666266.2</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6">
+        <v>666266.19999999995</v>
+      </c>
+      <c r="K6">
         <v>957.28</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1159,23 +1486,23 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>69600000</v>
+      </c>
+      <c r="H7">
         <v>22851.05</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>32.83</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>375513.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>539.53</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1194,23 +1521,23 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>69600000</v>
+      </c>
+      <c r="H8">
         <v>22427.9</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>32.22</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1212093</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1741.51</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1229,23 +1556,23 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>69600000</v>
+      </c>
+      <c r="H9">
         <v>22296.32</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>32.03</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>556899</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>800.14</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1264,23 +1591,23 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>69600000</v>
+      </c>
+      <c r="H10">
         <v>19474.5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>27.98</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>499267.8</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>717.34</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1299,23 +1626,23 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>18776.01</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="G11">
+        <v>69600000</v>
+      </c>
+      <c r="H11">
+        <v>18776.009999999998</v>
+      </c>
+      <c r="I11">
         <v>26.98</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>836475.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1201.83</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1334,23 +1661,23 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17596.06</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12">
+        <v>69600000</v>
+      </c>
+      <c r="H12">
+        <v>17596.060000000001</v>
+      </c>
+      <c r="I12">
         <v>25.28</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>539621</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>775.32</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1369,23 +1696,23 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>69600000</v>
+      </c>
+      <c r="H13">
         <v>13922.42</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>715194.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1027.58</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1404,23 +1731,23 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>69600000</v>
+      </c>
+      <c r="H14">
         <v>9908.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>14.24</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>261183.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>375.26</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1439,23 +1766,23 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>69600000</v>
+      </c>
+      <c r="H15">
         <v>9551.19</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>13.72</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>286679.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>411.9</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1474,23 +1801,23 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>69600000</v>
+      </c>
+      <c r="H16">
         <v>7843.99</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>11.27</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>193253.4</v>
       </c>
-      <c r="K16" t="n">
-        <v>277.66</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>277.66000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1509,23 +1836,23 @@
       <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>69600000</v>
+      </c>
+      <c r="H17">
         <v>6863.1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>9.86</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>240280.9</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>345.23</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1544,23 +1871,23 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>69600000</v>
+      </c>
+      <c r="H18">
         <v>6146.92</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>8.83</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>284927.3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>409.38</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1579,23 +1906,23 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>69600000</v>
+      </c>
+      <c r="H19">
         <v>6052.78</v>
       </c>
-      <c r="I19" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J19">
         <v>211458.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>303.82</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1614,23 +1941,23 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>69600000</v>
+      </c>
+      <c r="H20">
         <v>5409.07</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>7.77</v>
       </c>
-      <c r="J20" t="n">
-        <v>296167.6</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20">
+        <v>296167.59999999998</v>
+      </c>
+      <c r="K20">
         <v>425.53</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1649,23 +1976,23 @@
       <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5109.94</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="G21">
+        <v>69600000</v>
+      </c>
+      <c r="H21">
+        <v>5109.9399999999996</v>
+      </c>
+      <c r="I21">
         <v>7.34</v>
       </c>
-      <c r="J21" t="n">
-        <v>160235.7</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21">
+        <v>160235.70000000001</v>
+      </c>
+      <c r="K21">
         <v>230.22</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1684,23 +2011,23 @@
       <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>69600000</v>
+      </c>
+      <c r="H22">
         <v>4960.72</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>7.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>146613.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>210.65</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1719,23 +2046,23 @@
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4539.06</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="G23">
+        <v>69600000</v>
+      </c>
+      <c r="H23">
+        <v>4539.0600000000004</v>
+      </c>
+      <c r="I23">
         <v>6.52</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>130191.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>187.06</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1754,23 +2081,23 @@
       <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4292.48</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="G24">
+        <v>69600000</v>
+      </c>
+      <c r="H24">
+        <v>4292.4799999999996</v>
+      </c>
+      <c r="I24">
         <v>6.17</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>71555.94</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>102.81</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1789,23 +2116,23 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4181.81</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="G25">
+        <v>69600000</v>
+      </c>
+      <c r="H25">
+        <v>4181.8100000000004</v>
+      </c>
+      <c r="I25">
         <v>6.01</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>168468.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>242.05</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1824,23 +2151,23 @@
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>69600000</v>
+      </c>
+      <c r="H26">
         <v>3955.85</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>5.68</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>194036</v>
       </c>
-      <c r="K26" t="n">
-        <v>278.79</v>
-      </c>
-    </row>
-    <row r="27" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>278.79000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1859,23 +2186,23 @@
       <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="G27" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27">
+        <v>69600000</v>
+      </c>
+      <c r="H27">
         <v>3902.1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>5.61</v>
       </c>
-      <c r="J27" t="n">
-        <v>145326.2</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J27">
+        <v>145326.20000000001</v>
+      </c>
+      <c r="K27">
         <v>208.8</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1894,23 +2221,23 @@
       <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="G28" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G28">
+        <v>69600000</v>
+      </c>
+      <c r="H28">
         <v>3450.71</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>4.96</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>96649.24</v>
       </c>
-      <c r="K28" t="n">
-        <v>138.86</v>
-      </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>138.86000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1929,23 +2256,23 @@
       <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G29">
+        <v>69600000</v>
+      </c>
+      <c r="H29">
         <v>3375.32</v>
       </c>
-      <c r="I29" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I29">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J29">
         <v>253858.7</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>364.74</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1964,23 +2291,23 @@
       <c r="F30" t="s">
         <v>16</v>
       </c>
-      <c r="G30" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30">
+        <v>69600000</v>
+      </c>
+      <c r="H30">
         <v>3155.7</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>4.53</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>91222.47</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>131.07</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1999,23 +2326,23 @@
       <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G31">
+        <v>69600000</v>
+      </c>
+      <c r="H31">
         <v>3121.26</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J31" t="n">
-        <v>69316.68</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="I31">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J31">
+        <v>69316.679999999993</v>
+      </c>
+      <c r="K31">
         <v>99.59</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2034,23 +2361,23 @@
       <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="G32" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G32">
+        <v>69600000</v>
+      </c>
+      <c r="H32">
         <v>3012.77</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>4.33</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>61714.81</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>88.67</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2069,23 +2396,23 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="G33" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33">
+        <v>69600000</v>
+      </c>
+      <c r="H33">
         <v>2965.22</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>4.26</v>
       </c>
-      <c r="J33" t="n">
-        <v>193625.6</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33">
+        <v>193625.60000000001</v>
+      </c>
+      <c r="K33">
         <v>278.2</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2104,23 +2431,23 @@
       <c r="F34" t="s">
         <v>16</v>
       </c>
-      <c r="G34" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>69600000</v>
+      </c>
+      <c r="H34">
         <v>2878.75</v>
       </c>
-      <c r="I34" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J34" t="n">
-        <v>80788.57</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="I34">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J34">
+        <v>80788.570000000007</v>
+      </c>
+      <c r="K34">
         <v>116.08</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2139,23 +2466,23 @@
       <c r="F35" t="s">
         <v>16</v>
       </c>
-      <c r="G35" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G35">
+        <v>69600000</v>
+      </c>
+      <c r="H35">
         <v>2846.12</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>4.09</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>54151.07</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>77.8</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2174,23 +2501,23 @@
       <c r="F36" t="s">
         <v>16</v>
       </c>
-      <c r="G36" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>69600000</v>
+      </c>
+      <c r="H36">
         <v>2678.71</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>3.85</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>378709.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>544.12</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2209,23 +2536,23 @@
       <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="G37" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2382.97</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="G37">
+        <v>69600000</v>
+      </c>
+      <c r="H37">
+        <v>2382.9699999999998</v>
+      </c>
+      <c r="I37">
         <v>3.42</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>61951.16</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>89.01</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2244,23 +2571,23 @@
       <c r="F38" t="s">
         <v>16</v>
       </c>
-      <c r="G38" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>69600000</v>
+      </c>
+      <c r="H38">
         <v>2179.21</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>3.13</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>45959.32</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>66.03</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2279,23 +2606,23 @@
       <c r="F39" t="s">
         <v>16</v>
       </c>
-      <c r="G39" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G39">
+        <v>69600000</v>
+      </c>
+      <c r="H39">
         <v>2107.29</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>3.03</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>226969.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>326.11</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2314,23 +2641,23 @@
       <c r="F40" t="s">
         <v>16</v>
       </c>
-      <c r="G40" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>69600000</v>
+      </c>
+      <c r="H40">
         <v>2003.34</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>2.88</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>65889.08</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>94.67</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2349,23 +2676,23 @@
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="G41">
+        <v>69600000</v>
+      </c>
+      <c r="H41">
         <v>1904.85</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>2.74</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>70909.87</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>101.88</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2384,23 +2711,23 @@
       <c r="F42" t="s">
         <v>16</v>
       </c>
-      <c r="G42" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="G42">
+        <v>69600000</v>
+      </c>
+      <c r="H42">
         <v>1798.49</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>2.58</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>40258.07</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>57.84</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2419,23 +2746,23 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="G43">
+        <v>69600000</v>
+      </c>
+      <c r="H43">
         <v>1678.55</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>2.41</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>31866.04</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>45.78</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -2454,23 +2781,23 @@
       <c r="F44" t="s">
         <v>16</v>
       </c>
-      <c r="G44" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="G44">
+        <v>69600000</v>
+      </c>
+      <c r="H44">
         <v>1157.44</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>1.66</v>
       </c>
-      <c r="J44" t="n">
-        <v>35918.4</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44">
+        <v>35918.400000000001</v>
+      </c>
+      <c r="K44">
         <v>51.61</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2489,23 +2816,23 @@
       <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="G45" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="G45">
+        <v>69600000</v>
+      </c>
+      <c r="H45">
         <v>1132.69</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>1.63</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>30483.97</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>43.8</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2524,23 +2851,23 @@
       <c r="F46" t="s">
         <v>16</v>
       </c>
-      <c r="G46" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="G46">
+        <v>69600000</v>
+      </c>
+      <c r="H46">
         <v>961.85</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>1.38</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>34723.33</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>49.89</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -2559,23 +2886,23 @@
       <c r="F47" t="s">
         <v>16</v>
       </c>
-      <c r="G47" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="G47">
+        <v>69600000</v>
+      </c>
+      <c r="H47">
         <v>930.5</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>1.34</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>37019.14</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>53.19</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2594,23 +2921,23 @@
       <c r="F48" t="s">
         <v>16</v>
       </c>
-      <c r="G48" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G48">
+        <v>69600000</v>
+      </c>
+      <c r="H48">
         <v>901.43</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>1.3</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>25438.23</v>
       </c>
-      <c r="K48" t="n">
-        <v>36.55</v>
-      </c>
-    </row>
-    <row r="49" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2629,23 +2956,23 @@
       <c r="F49" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G49">
+        <v>69600000</v>
+      </c>
+      <c r="H49">
         <v>860.01</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>1.24</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>25688.91</v>
       </c>
-      <c r="K49" t="n">
-        <v>36.91</v>
-      </c>
-    </row>
-    <row r="50" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>36.909999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2664,23 +2991,23 @@
       <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G50" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="G50">
+        <v>69600000</v>
+      </c>
+      <c r="H50">
         <v>864.18</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>1.24</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>25845.87</v>
       </c>
-      <c r="K50" t="n">
-        <v>37.13</v>
-      </c>
-    </row>
-    <row r="51" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>37.130000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2699,23 +3026,23 @@
       <c r="F51" t="s">
         <v>16</v>
       </c>
-      <c r="G51" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="G51">
+        <v>69600000</v>
+      </c>
+      <c r="H51">
         <v>793.93</v>
       </c>
-      <c r="I51" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>149892.8</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="I51">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J51">
+        <v>149892.79999999999</v>
+      </c>
+      <c r="K51">
         <v>215.36</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2734,23 +3061,23 @@
       <c r="F52" t="s">
         <v>16</v>
       </c>
-      <c r="G52" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="G52">
+        <v>69600000</v>
+      </c>
+      <c r="H52">
         <v>721.64</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>1.04</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>27979.9</v>
       </c>
-      <c r="K52" t="n">
-        <v>40.2</v>
-      </c>
-    </row>
-    <row r="53" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -2769,23 +3096,23 @@
       <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="G53">
+        <v>69600000</v>
+      </c>
+      <c r="H53">
         <v>688.76</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.99</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>101228.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>145.44</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -2804,23 +3131,23 @@
       <c r="F54" t="s">
         <v>16</v>
       </c>
-      <c r="G54" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="G54">
+        <v>69600000</v>
+      </c>
+      <c r="H54">
         <v>640.91</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.92</v>
       </c>
-      <c r="J54" t="n">
-        <v>67141.57</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="J54">
+        <v>67141.570000000007</v>
+      </c>
+      <c r="K54">
         <v>96.47</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -2839,23 +3166,23 @@
       <c r="F55" t="s">
         <v>16</v>
       </c>
-      <c r="G55" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="G55">
+        <v>69600000</v>
+      </c>
+      <c r="H55">
         <v>617.48</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.89</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>36080.44</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>51.84</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -2874,23 +3201,23 @@
       <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="G56" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H56" t="n">
-        <v>548.08</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="G56">
+        <v>69600000</v>
+      </c>
+      <c r="H56">
+        <v>548.08000000000004</v>
+      </c>
+      <c r="I56">
         <v>0.79</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>132935.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>191</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -2909,23 +3236,23 @@
       <c r="F57" t="s">
         <v>16</v>
       </c>
-      <c r="G57" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="G57">
+        <v>69600000</v>
+      </c>
+      <c r="H57">
         <v>461.47</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.66</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>11816.02</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>16.98</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -2944,23 +3271,23 @@
       <c r="F58" t="s">
         <v>16</v>
       </c>
-      <c r="G58" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H58" t="n">
+      <c r="G58">
+        <v>69600000</v>
+      </c>
+      <c r="H58">
         <v>435.73</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.63</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>28664.84</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>41.19</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -2979,23 +3306,23 @@
       <c r="F59" t="s">
         <v>16</v>
       </c>
-      <c r="G59" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H59" t="n">
+      <c r="G59">
+        <v>69600000</v>
+      </c>
+      <c r="H59">
         <v>397.2</v>
       </c>
-      <c r="I59" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="J59" t="n">
+      <c r="I59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J59">
         <v>12783.55</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>18.37</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3014,23 +3341,23 @@
       <c r="F60" t="s">
         <v>16</v>
       </c>
-      <c r="G60" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="G60">
+        <v>69600000</v>
+      </c>
+      <c r="H60">
         <v>227.25</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.33</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>15257.33</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>21.92</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3049,23 +3376,23 @@
       <c r="F61" t="s">
         <v>16</v>
       </c>
-      <c r="G61" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="G61">
+        <v>69600000</v>
+      </c>
+      <c r="H61">
         <v>221.21</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.32</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>23020.73</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>33.08</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3084,23 +3411,23 @@
       <c r="F62" t="s">
         <v>16</v>
       </c>
-      <c r="G62" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H62" t="n">
+      <c r="G62">
+        <v>69600000</v>
+      </c>
+      <c r="H62">
         <v>194.49</v>
       </c>
-      <c r="I62" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="I62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J62">
         <v>26674</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>38.32</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3119,23 +3446,23 @@
       <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H63" t="n">
+      <c r="G63">
+        <v>69600000</v>
+      </c>
+      <c r="H63">
         <v>171.87</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.25</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>16537.96</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>23.76</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3154,23 +3481,23 @@
       <c r="F64" t="s">
         <v>16</v>
       </c>
-      <c r="G64" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>153.27</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="G64">
+        <v>69600000</v>
+      </c>
+      <c r="H64">
+        <v>153.27000000000001</v>
+      </c>
+      <c r="I64">
         <v>0.22</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>7390.12</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>10.62</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -3189,23 +3516,23 @@
       <c r="F65" t="s">
         <v>16</v>
       </c>
-      <c r="G65" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H65" t="n">
+      <c r="G65">
+        <v>69600000</v>
+      </c>
+      <c r="H65">
         <v>132</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.19</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>7765.87</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>11.16</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3224,23 +3551,23 @@
       <c r="F66" t="s">
         <v>16</v>
       </c>
-      <c r="G66" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H66" t="n">
+      <c r="G66">
+        <v>69600000</v>
+      </c>
+      <c r="H66">
         <v>116.49</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.17</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>6018.33</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>8.65</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3259,23 +3586,23 @@
       <c r="F67" t="s">
         <v>16</v>
       </c>
-      <c r="G67" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H67" t="n">
+      <c r="G67">
+        <v>69600000</v>
+      </c>
+      <c r="H67">
         <v>114.48</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.16</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>10253.57</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>14.73</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -3294,23 +3621,23 @@
       <c r="F68" t="s">
         <v>16</v>
       </c>
-      <c r="G68" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H68" t="n">
+      <c r="G68">
+        <v>69600000</v>
+      </c>
+      <c r="H68">
         <v>114.01</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.16</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>5790.88</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>8.32</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3329,23 +3656,23 @@
       <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="G69" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="G69">
+        <v>69600000</v>
+      </c>
+      <c r="H69">
         <v>106.32</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.15</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>3047.82</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>4.38</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3364,23 +3691,23 @@
       <c r="F70" t="s">
         <v>16</v>
       </c>
-      <c r="G70" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="G70">
+        <v>69600000</v>
+      </c>
+      <c r="H70">
         <v>96.76</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="I70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J70">
         <v>37602.07</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>54.03</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3399,23 +3726,23 @@
       <c r="F71" t="s">
         <v>16</v>
       </c>
-      <c r="G71" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H71" t="n">
+      <c r="G71">
+        <v>69600000</v>
+      </c>
+      <c r="H71">
         <v>87.28</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.13</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>9818.01</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>14.11</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -3434,23 +3761,23 @@
       <c r="F72" t="s">
         <v>16</v>
       </c>
-      <c r="G72" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H72" t="n">
+      <c r="G72">
+        <v>69600000</v>
+      </c>
+      <c r="H72">
         <v>85.59</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.12</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>3400.62</v>
       </c>
-      <c r="K72" t="n">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="73" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -3469,23 +3796,23 @@
       <c r="F73" t="s">
         <v>16</v>
       </c>
-      <c r="G73" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H73" t="n">
+      <c r="G73">
+        <v>69600000</v>
+      </c>
+      <c r="H73">
         <v>77.38</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.11</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>7193.72</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>10.34</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3504,23 +3831,23 @@
       <c r="F74" t="s">
         <v>16</v>
       </c>
-      <c r="G74" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H74" t="n">
+      <c r="G74">
+        <v>69600000</v>
+      </c>
+      <c r="H74">
         <v>55.7</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.08</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>5114.24</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>7.35</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3539,23 +3866,23 @@
       <c r="F75" t="s">
         <v>16</v>
       </c>
-      <c r="G75" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="G75">
+        <v>69600000</v>
+      </c>
+      <c r="H75">
         <v>52.21</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.08</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>2584.84</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>3.71</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3574,23 +3901,23 @@
       <c r="F76" t="s">
         <v>16</v>
       </c>
-      <c r="G76" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H76" t="n">
-        <v>36.98</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="G76">
+        <v>69600000</v>
+      </c>
+      <c r="H76">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="I76">
         <v>0.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>193124.8</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>277.48</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -3609,23 +3936,23 @@
       <c r="F77" t="s">
         <v>16</v>
       </c>
-      <c r="G77" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H77" t="n">
+      <c r="G77">
+        <v>69600000</v>
+      </c>
+      <c r="H77">
         <v>36.18</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.05</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>3040.03</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>4.37</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -3644,23 +3971,23 @@
       <c r="F78" t="s">
         <v>16</v>
       </c>
-      <c r="G78" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H78" t="n">
+      <c r="G78">
+        <v>69600000</v>
+      </c>
+      <c r="H78">
         <v>29.25</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.04</v>
       </c>
-      <c r="J78" t="n">
-        <v>1307.39</v>
-      </c>
-      <c r="K78" t="n">
+      <c r="J78">
+        <v>1307.3900000000001</v>
+      </c>
+      <c r="K78">
         <v>1.88</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -3679,23 +4006,23 @@
       <c r="F79" t="s">
         <v>16</v>
       </c>
-      <c r="G79" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H79" t="n">
+      <c r="G79">
+        <v>69600000</v>
+      </c>
+      <c r="H79">
         <v>17.64</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.03</v>
       </c>
-      <c r="J79" t="n">
-        <v>76367.68</v>
-      </c>
-      <c r="K79" t="n">
+      <c r="J79">
+        <v>76367.679999999993</v>
+      </c>
+      <c r="K79">
         <v>109.72</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -3714,23 +4041,23 @@
       <c r="F80" t="s">
         <v>16</v>
       </c>
-      <c r="G80" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="G80">
+        <v>69600000</v>
+      </c>
+      <c r="H80">
+        <v>13</v>
+      </c>
+      <c r="I80">
         <v>0.02</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>1369.08</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>1.97</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -3749,23 +4076,23 @@
       <c r="F81" t="s">
         <v>16</v>
       </c>
-      <c r="G81" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H81" t="n">
+      <c r="G81">
+        <v>69600000</v>
+      </c>
+      <c r="H81">
         <v>7.49</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.01</v>
       </c>
-      <c r="J81" t="n">
-        <v>300.09</v>
-      </c>
-      <c r="K81" t="n">
+      <c r="J81">
+        <v>300.08999999999997</v>
+      </c>
+      <c r="K81">
         <v>0.43</v>
       </c>
     </row>
-    <row r="82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -3784,23 +4111,23 @@
       <c r="F82" t="s">
         <v>16</v>
       </c>
-      <c r="G82" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H82" t="n">
+      <c r="G82">
+        <v>69600000</v>
+      </c>
+      <c r="H82">
         <v>8.41</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.01</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>2029.74</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>2.92</v>
       </c>
     </row>
-    <row r="83" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>177</v>
       </c>
@@ -3819,23 +4146,23 @@
       <c r="F83" t="s">
         <v>16</v>
       </c>
-      <c r="G83" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="G83">
+        <v>69600000</v>
+      </c>
+      <c r="H83">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I83">
         <v>0.01</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>230.55</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>0.33</v>
       </c>
     </row>
-    <row r="84" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -3854,23 +4181,23 @@
       <c r="F84" t="s">
         <v>16</v>
       </c>
-      <c r="G84" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H84" t="n">
+      <c r="G84">
+        <v>69600000</v>
+      </c>
+      <c r="H84">
         <v>10.18</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.01</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>1662.64</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>2.39</v>
       </c>
     </row>
-    <row r="85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>181</v>
       </c>
@@ -3889,23 +4216,23 @@
       <c r="F85" t="s">
         <v>16</v>
       </c>
-      <c r="G85" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H85" t="n">
+      <c r="G85">
+        <v>69600000</v>
+      </c>
+      <c r="H85">
         <v>6.92</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.01</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>16578.3</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>23.82</v>
       </c>
     </row>
-    <row r="86" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -3924,23 +4251,23 @@
       <c r="F86" t="s">
         <v>16</v>
       </c>
-      <c r="G86" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="G86">
+        <v>69600000</v>
+      </c>
+      <c r="H86">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="I86">
         <v>0.01</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>356.15</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>0.51</v>
       </c>
     </row>
-    <row r="87" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>185</v>
       </c>
@@ -3959,23 +4286,23 @@
       <c r="F87" t="s">
         <v>16</v>
       </c>
-      <c r="G87" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="G87">
+        <v>69600000</v>
+      </c>
+      <c r="H87">
         <v>3.81</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.01</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>571.77</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>0.82</v>
       </c>
     </row>
-    <row r="88" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -3994,23 +4321,23 @@
       <c r="F88" t="s">
         <v>16</v>
       </c>
-      <c r="G88" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H88" t="n">
+      <c r="G88">
+        <v>69600000</v>
+      </c>
+      <c r="H88">
         <v>6.92</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.01</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>4420.12</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>6.35</v>
       </c>
     </row>
-    <row r="89" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -4029,23 +4356,23 @@
       <c r="F89" t="s">
         <v>16</v>
       </c>
-      <c r="G89" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
+      <c r="G89">
+        <v>69600000</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>229135.6</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>329.22</v>
       </c>
     </row>
-    <row r="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -4064,23 +4391,23 @@
       <c r="F90" t="s">
         <v>16</v>
       </c>
-      <c r="G90" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
+      <c r="G90">
+        <v>69600000</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <v>320441.5</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>460.4</v>
       </c>
     </row>
-    <row r="91" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>193</v>
       </c>
@@ -4099,23 +4426,23 @@
       <c r="F91" t="s">
         <v>16</v>
       </c>
-      <c r="G91" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>40884.48</v>
-      </c>
-      <c r="K91" t="n">
+      <c r="G91">
+        <v>69600000</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>40884.480000000003</v>
+      </c>
+      <c r="K91">
         <v>58.74</v>
       </c>
     </row>
-    <row r="92" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -4134,23 +4461,23 @@
       <c r="F92" t="s">
         <v>16</v>
       </c>
-      <c r="G92" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
+      <c r="G92">
+        <v>69600000</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
         <v>10807.63</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>15.53</v>
       </c>
     </row>
-    <row r="93" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -4169,23 +4496,23 @@
       <c r="F93" t="s">
         <v>16</v>
       </c>
-      <c r="G93" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
+      <c r="G93">
+        <v>69600000</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
         <v>130365</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>187.31</v>
       </c>
     </row>
-    <row r="94" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -4204,23 +4531,23 @@
       <c r="F94" t="s">
         <v>16</v>
       </c>
-      <c r="G94" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
+      <c r="G94">
+        <v>69600000</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>226243.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>325.06</v>
       </c>
     </row>
-    <row r="95" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -4239,23 +4566,23 @@
       <c r="F95" t="s">
         <v>16</v>
       </c>
-      <c r="G95" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="G95">
+        <v>69600000</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>12879.89</v>
       </c>
-      <c r="K95" t="n">
-        <v>18.51</v>
-      </c>
-    </row>
-    <row r="96" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>18.510000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -4274,23 +4601,23 @@
       <c r="F96" t="s">
         <v>16</v>
       </c>
-      <c r="G96" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
+      <c r="G96">
+        <v>69600000</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>106664.4</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>153.25</v>
       </c>
     </row>
-    <row r="97" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -4309,23 +4636,23 @@
       <c r="F97" t="s">
         <v>16</v>
       </c>
-      <c r="G97" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
+      <c r="G97">
+        <v>69600000</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>470374.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>675.83</v>
       </c>
     </row>
-    <row r="98" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -4344,23 +4671,23 @@
       <c r="F98" t="s">
         <v>16</v>
       </c>
-      <c r="G98" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
+      <c r="G98">
+        <v>69600000</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
         <v>163084.5</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>234.32</v>
       </c>
     </row>
-    <row r="99" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -4379,23 +4706,23 @@
       <c r="F99" t="s">
         <v>16</v>
       </c>
-      <c r="G99" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
+      <c r="G99">
+        <v>69600000</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
         <v>21634.55</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>31.08</v>
       </c>
     </row>
-    <row r="100" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -4414,23 +4741,23 @@
       <c r="F100" t="s">
         <v>16</v>
       </c>
-      <c r="G100" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
+      <c r="G100">
+        <v>69600000</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <v>577228.5</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>829.35</v>
       </c>
     </row>
-    <row r="101" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>213</v>
       </c>
@@ -4449,23 +4776,23 @@
       <c r="F101" t="s">
         <v>16</v>
       </c>
-      <c r="G101" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
+      <c r="G101">
+        <v>69600000</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>29184.76</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>41.93</v>
       </c>
     </row>
-    <row r="102" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -4484,23 +4811,23 @@
       <c r="F102" t="s">
         <v>16</v>
       </c>
-      <c r="G102" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
+      <c r="G102">
+        <v>69600000</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>29280.12</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>42.07</v>
       </c>
     </row>
-    <row r="103" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -4519,23 +4846,23 @@
       <c r="F103" t="s">
         <v>16</v>
       </c>
-      <c r="G103" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="G103">
+        <v>69600000</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>172.62</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>0.25</v>
       </c>
     </row>
-    <row r="104" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -4554,23 +4881,23 @@
       <c r="F104" t="s">
         <v>16</v>
       </c>
-      <c r="G104" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="G104">
+        <v>69600000</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>1750.87</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>2.52</v>
       </c>
     </row>
-    <row r="105" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -4589,23 +4916,23 @@
       <c r="F105" t="s">
         <v>16</v>
       </c>
-      <c r="G105" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
+      <c r="G105">
+        <v>69600000</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
         <v>12276.9</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>17.64</v>
       </c>
     </row>
-    <row r="106" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -4624,23 +4951,23 @@
       <c r="F106" t="s">
         <v>16</v>
       </c>
-      <c r="G106" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
+      <c r="G106">
+        <v>69600000</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>54.37</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>0.08</v>
       </c>
     </row>
-    <row r="107" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>225</v>
       </c>
@@ -4659,23 +4986,23 @@
       <c r="F107" t="s">
         <v>16</v>
       </c>
-      <c r="G107" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>69600000</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -4694,23 +5021,23 @@
       <c r="F108" t="s">
         <v>16</v>
       </c>
-      <c r="G108" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>69600000</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>229</v>
       </c>
@@ -4729,23 +5056,23 @@
       <c r="F109" t="s">
         <v>16</v>
       </c>
-      <c r="G109" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H109" t="n">
+      <c r="G109">
+        <v>69600000</v>
+      </c>
+      <c r="H109">
         <v>1.01</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
         <v>54.82</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>0.08</v>
       </c>
     </row>
-    <row r="110" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>231</v>
       </c>
@@ -4764,23 +5091,23 @@
       <c r="F110" t="s">
         <v>16</v>
       </c>
-      <c r="G110" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>69600000</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -4799,23 +5126,23 @@
       <c r="F111" t="s">
         <v>16</v>
       </c>
-      <c r="G111" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>69600000</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -4834,23 +5161,23 @@
       <c r="F112" t="s">
         <v>16</v>
       </c>
-      <c r="G112" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H112" t="n">
+      <c r="G112">
+        <v>69600000</v>
+      </c>
+      <c r="H112">
         <v>2.29</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
         <v>1821.78</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>2.62</v>
       </c>
     </row>
-    <row r="113" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -4869,23 +5196,23 @@
       <c r="F113" t="s">
         <v>16</v>
       </c>
-      <c r="G113" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H113" t="n">
+      <c r="G113">
+        <v>69600000</v>
+      </c>
+      <c r="H113">
         <v>0.05</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
         <v>704.02</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>1.01</v>
       </c>
     </row>
-    <row r="114" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -4904,23 +5231,23 @@
       <c r="F114" t="s">
         <v>16</v>
       </c>
-      <c r="G114" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
+      <c r="G114">
+        <v>69600000</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>369972.4</v>
       </c>
-      <c r="K114" t="n">
-        <v>531.57</v>
-      </c>
-    </row>
-    <row r="115" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>531.57000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>241</v>
       </c>
@@ -4939,23 +5266,23 @@
       <c r="F115" t="s">
         <v>16</v>
       </c>
-      <c r="G115" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
+      <c r="G115">
+        <v>69600000</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
         <v>58048.77</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>83.4</v>
       </c>
     </row>
-    <row r="116" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>243</v>
       </c>
@@ -4974,23 +5301,23 @@
       <c r="F116" t="s">
         <v>16</v>
       </c>
-      <c r="G116" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>161321.6</v>
-      </c>
-      <c r="K116" t="n">
+      <c r="G116">
+        <v>69600000</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>161321.60000000001</v>
+      </c>
+      <c r="K116">
         <v>231.78</v>
       </c>
     </row>
-    <row r="117" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>245</v>
       </c>
@@ -5009,23 +5336,23 @@
       <c r="F117" t="s">
         <v>16</v>
       </c>
-      <c r="G117" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
+      <c r="G117">
+        <v>69600000</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>251395.1</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>361.2</v>
       </c>
     </row>
-    <row r="118" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -5044,23 +5371,23 @@
       <c r="F118" t="s">
         <v>16</v>
       </c>
-      <c r="G118" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H118" t="n">
+      <c r="G118">
+        <v>69600000</v>
+      </c>
+      <c r="H118">
         <v>1.58</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
         <v>18141.39</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>26.07</v>
       </c>
     </row>
-    <row r="119" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -5079,23 +5406,23 @@
       <c r="F119" t="s">
         <v>16</v>
       </c>
-      <c r="G119" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
+      <c r="G119">
+        <v>69600000</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>31003.75</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>44.55</v>
       </c>
     </row>
-    <row r="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>251</v>
       </c>
@@ -5114,23 +5441,23 @@
       <c r="F120" t="s">
         <v>16</v>
       </c>
-      <c r="G120" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
+      <c r="G120">
+        <v>69600000</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
         <v>45035.29</v>
       </c>
-      <c r="K120" t="n">
-        <v>64.71</v>
-      </c>
-    </row>
-    <row r="121" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>64.709999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>253</v>
       </c>
@@ -5149,23 +5476,23 @@
       <c r="F121" t="s">
         <v>16</v>
       </c>
-      <c r="G121" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
+      <c r="G121">
+        <v>69600000</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
         <v>47414.44</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>68.12</v>
       </c>
     </row>
-    <row r="122" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>255</v>
       </c>
@@ -5184,23 +5511,23 @@
       <c r="F122" t="s">
         <v>16</v>
       </c>
-      <c r="G122" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
+      <c r="G122">
+        <v>69600000</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
         <v>7720.27</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>11.09</v>
       </c>
     </row>
-    <row r="123" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>257</v>
       </c>
@@ -5219,23 +5546,23 @@
       <c r="F123" t="s">
         <v>16</v>
       </c>
-      <c r="G123" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
+      <c r="G123">
+        <v>69600000</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
         <v>2633.62</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>3.78</v>
       </c>
     </row>
-    <row r="124" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>259</v>
       </c>
@@ -5254,23 +5581,23 @@
       <c r="F124" t="s">
         <v>16</v>
       </c>
-      <c r="G124" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
+      <c r="G124">
+        <v>69600000</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <v>80088.56</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>115.07</v>
       </c>
     </row>
-    <row r="125" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>261</v>
       </c>
@@ -5289,23 +5616,23 @@
       <c r="F125" t="s">
         <v>16</v>
       </c>
-      <c r="G125" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>69600000</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>263</v>
       </c>
@@ -5324,23 +5651,23 @@
       <c r="F126" t="s">
         <v>16</v>
       </c>
-      <c r="G126" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H126" t="n">
+      <c r="G126">
+        <v>69600000</v>
+      </c>
+      <c r="H126">
         <v>1.07</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <v>62.53</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>0.09</v>
       </c>
     </row>
-    <row r="127" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>265</v>
       </c>
@@ -5359,23 +5686,23 @@
       <c r="F127" t="s">
         <v>16</v>
       </c>
-      <c r="G127" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>69600000</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -5394,23 +5721,23 @@
       <c r="F128" t="s">
         <v>16</v>
       </c>
-      <c r="G128" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>69600000</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -5429,23 +5756,23 @@
       <c r="F129" t="s">
         <v>16</v>
       </c>
-      <c r="G129" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H129" t="n">
+      <c r="G129">
+        <v>69600000</v>
+      </c>
+      <c r="H129">
         <v>0.72</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
         <v>211.08</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -5464,23 +5791,23 @@
       <c r="F130" t="s">
         <v>16</v>
       </c>
-      <c r="G130" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H130" t="n">
+      <c r="G130">
+        <v>69600000</v>
+      </c>
+      <c r="H130">
         <v>3.41</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
         <v>2892.88</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>4.16</v>
       </c>
     </row>
-    <row r="131" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -5499,23 +5826,23 @@
       <c r="F131" t="s">
         <v>16</v>
       </c>
-      <c r="G131" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
+      <c r="G131">
+        <v>69600000</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
         <v>3490.29</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>5.01</v>
       </c>
     </row>
-    <row r="132" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -5534,20 +5861,181 @@
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132" t="n">
-        <v>69600000</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
+      <c r="G132">
+        <v>69600000</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
         <v>2693.33</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>3.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36AC955-C031-408A-9101-7B50D75C1D7C}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
